--- a/Gen9_5000.xlsx
+++ b/Gen9_5000.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11805" activeTab="1"/>
+    <workbookView windowWidth="18350" windowHeight="6430" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5119,11 +5119,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -5583,19 +5583,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5732,7 +5732,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -12984,13 +12984,13 @@
       <selection activeCell="P2" sqref="P2:P511"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="3" max="3" width="12.6283185840708"/>
-    <col min="7" max="7" width="9.3716814159292"/>
-    <col min="8" max="8" width="12.6283185840708"/>
-    <col min="14" max="14" width="12.6283185840708"/>
-    <col min="16" max="16" width="22.2477876106195" customWidth="1"/>
+    <col min="3" max="3" width="12.6272727272727"/>
+    <col min="7" max="7" width="9.37272727272727"/>
+    <col min="8" max="8" width="12.6272727272727"/>
+    <col min="14" max="14" width="12.6272727272727"/>
+    <col min="16" max="16" width="22.2454545454545" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -38256,13 +38256,12 @@
   <dimension ref="A1:K511"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G458" sqref="G458"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="34.9823008849558" customWidth="1"/>
-    <col min="3" max="3" width="12.7964601769912"/>
+    <col min="3" max="3" width="12.8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -51008,7 +51007,9 @@
       <c r="E345">
         <v>31</v>
       </c>
-      <c r="F345"/>
+      <c r="F345">
+        <v>0</v>
+      </c>
       <c r="G345">
         <v>23</v>
       </c>
@@ -51119,7 +51120,9 @@
       <c r="E348">
         <v>18</v>
       </c>
-      <c r="F348" s="2"/>
+      <c r="F348" s="2">
+        <v>0</v>
+      </c>
       <c r="G348">
         <v>12</v>
       </c>
@@ -51683,7 +51686,9 @@
       <c r="E363">
         <v>90</v>
       </c>
-      <c r="F363" s="2"/>
+      <c r="F363" s="2">
+        <v>0</v>
+      </c>
       <c r="G363">
         <v>84</v>
       </c>
@@ -51754,7 +51759,7 @@
         <v>19.99</v>
       </c>
       <c r="E365">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="F365" s="2">
         <v>4.56666666666667</v>
@@ -52209,7 +52214,9 @@
       <c r="E377">
         <v>94</v>
       </c>
-      <c r="F377" s="2"/>
+      <c r="F377" s="2">
+        <v>0</v>
+      </c>
       <c r="G377">
         <v>96</v>
       </c>
@@ -52282,7 +52289,9 @@
       <c r="E379">
         <v>21</v>
       </c>
-      <c r="F379" s="2"/>
+      <c r="F379" s="2">
+        <v>0</v>
+      </c>
       <c r="G379">
         <v>21</v>
       </c>
@@ -53373,7 +53382,9 @@
       <c r="E408">
         <v>95</v>
       </c>
-      <c r="F408" s="2"/>
+      <c r="F408" s="2">
+        <v>0</v>
+      </c>
       <c r="G408">
         <v>92</v>
       </c>
@@ -53634,7 +53645,9 @@
       <c r="E415">
         <v>87</v>
       </c>
-      <c r="F415" s="2"/>
+      <c r="F415" s="2">
+        <v>0</v>
+      </c>
       <c r="G415">
         <v>80</v>
       </c>
@@ -53668,7 +53681,7 @@
         <v>27.99</v>
       </c>
       <c r="E416">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="F416" s="2">
         <v>5.78333333333333</v>
@@ -54574,7 +54587,7 @@
         <v>10.99</v>
       </c>
       <c r="E440">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="F440" s="2">
         <v>4.75</v>
@@ -55255,7 +55268,9 @@
       <c r="E458">
         <v>59</v>
       </c>
-      <c r="F458" s="2"/>
+      <c r="F458" s="2">
+        <v>0</v>
+      </c>
       <c r="G458">
         <v>49</v>
       </c>
@@ -55820,7 +55835,9 @@
       <c r="E473">
         <v>98</v>
       </c>
-      <c r="F473" s="2"/>
+      <c r="F473" s="2">
+        <v>0</v>
+      </c>
       <c r="G473">
         <v>98</v>
       </c>
@@ -56196,7 +56213,9 @@
       <c r="E483">
         <v>90</v>
       </c>
-      <c r="F483" s="2"/>
+      <c r="F483" s="2">
+        <v>0</v>
+      </c>
       <c r="G483">
         <v>86</v>
       </c>
@@ -56305,7 +56324,7 @@
         <v>8.99</v>
       </c>
       <c r="E486">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="F486" s="2">
         <v>49.3833333333333</v>
@@ -56420,7 +56439,9 @@
       <c r="E489">
         <v>96</v>
       </c>
-      <c r="F489" s="2"/>
+      <c r="F489" s="2">
+        <v>0</v>
+      </c>
       <c r="G489">
         <v>95</v>
       </c>
@@ -56721,7 +56742,9 @@
       <c r="E497">
         <v>74</v>
       </c>
-      <c r="F497" s="2"/>
+      <c r="F497" s="2">
+        <v>0</v>
+      </c>
       <c r="G497">
         <v>74</v>
       </c>
@@ -56833,7 +56856,9 @@
       <c r="E500">
         <v>93</v>
       </c>
-      <c r="F500" s="2"/>
+      <c r="F500" s="2">
+        <v>0</v>
+      </c>
       <c r="G500">
         <v>85</v>
       </c>
@@ -56869,7 +56894,9 @@
       <c r="E501">
         <v>37</v>
       </c>
-      <c r="F501" s="2"/>
+      <c r="F501" s="2">
+        <v>0</v>
+      </c>
       <c r="G501">
         <v>37</v>
       </c>
@@ -57019,7 +57046,9 @@
       <c r="E505">
         <v>81</v>
       </c>
-      <c r="F505" s="2"/>
+      <c r="F505" s="2">
+        <v>0</v>
+      </c>
       <c r="G505">
         <v>75</v>
       </c>
@@ -57093,7 +57122,9 @@
       <c r="E507">
         <v>81</v>
       </c>
-      <c r="F507" s="2"/>
+      <c r="F507" s="2">
+        <v>0</v>
+      </c>
       <c r="G507">
         <v>45</v>
       </c>
@@ -57201,7 +57232,7 @@
         <v>69.99</v>
       </c>
       <c r="E510">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="F510" s="2">
         <v>47.5833333333333</v>
@@ -57281,7 +57312,7 @@
       <selection activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" t="s">
@@ -86844,7 +86875,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72566371681416" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -86860,7 +86891,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72566371681416" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
